--- a/小テスト②_板垣.xlsx
+++ b/小テスト②_板垣.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.itagaki\Documents\Training\51_Java_Quiz\Quiz_0506\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{597AC37E-0FD2-476A-BA33-6568576C7689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3799C5B-9537-47EB-ABB7-396FC45299F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="180" windowWidth="14790" windowHeight="10020" xr2:uid="{C014E774-B6BC-4061-A1A4-02B95FF77040}"/>
+    <workbookView xWindow="4125" yWindow="900" windowWidth="14790" windowHeight="10020" xr2:uid="{C014E774-B6BC-4061-A1A4-02B95FF77040}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML パス" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>前提</t>
     <rPh sb="0" eb="2">
@@ -614,16 +614,19 @@
     <t>../img/apple.png</t>
   </si>
   <si>
-    <t>../B/C/test.png</t>
-  </si>
-  <si>
     <t>test.png</t>
   </si>
   <si>
-    <t>../C/test.png</t>
-  </si>
-  <si>
-    <t>../../C/test.png</t>
+    <t>B/C/test.png</t>
+  </si>
+  <si>
+    <t>C/test.png</t>
+  </si>
+  <si>
+    <t>../test.png</t>
+  </si>
+  <si>
+    <t>../../test.png</t>
   </si>
 </sst>
 </file>
@@ -4236,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -4270,7 +4273,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -4287,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -4304,7 +4307,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>

--- a/小テスト②_板垣.xlsx
+++ b/小テスト②_板垣.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y.itagaki\Documents\Training\51_Java_Quiz\Quiz_0506\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3799C5B-9537-47EB-ABB7-396FC45299F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DB95BA-34D8-423F-B7AD-A0C25C72E16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4125" yWindow="900" windowWidth="14790" windowHeight="10020" xr2:uid="{C014E774-B6BC-4061-A1A4-02B95FF77040}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>前提</t>
     <rPh sb="0" eb="2">
@@ -538,46 +538,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>○ 作成が完了したらWebContent直下に「practiceTest9.html」を作成し、ここから問題のjsファイルを呼び出し、実行した出力結果も併せて、解答してください</t>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>チョッカ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>カイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・cssファイルを作成する場合は下記のように作成してください</t>
     <rPh sb="9" eb="11">
       <t>サクセイ</t>
@@ -627,6 +587,12 @@
   </si>
   <si>
     <t>../../test.png</t>
+  </si>
+  <si>
+    <t>../C/test.png</t>
+  </si>
+  <si>
+    <t>○ 作成が完了したらWebContent直下に「practiceTest9.html」を作成し、ここから問題のjsファイルを呼び出し、実行した出力結果も併せて、解答してください</t>
   </si>
 </sst>
 </file>
@@ -4203,7 +4169,7 @@
     </row>
     <row r="40" spans="2:15">
       <c r="K40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -4217,7 +4183,7 @@
     </row>
     <row r="45" spans="2:15">
       <c r="K45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -4239,7 +4205,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -4256,7 +4222,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
@@ -4273,7 +4239,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
@@ -4290,7 +4256,7 @@
         <v>10</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
@@ -4307,7 +4273,7 @@
         <v>11</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -4324,7 +4290,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
@@ -4392,17 +4358,17 @@
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4475,7 +4441,9 @@
   </sheetPr>
   <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4546,7 +4514,7 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" s="7" customFormat="1"/>
